--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H2">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I2">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J2">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>116.1771810898332</v>
+        <v>124.8172891693707</v>
       </c>
       <c r="R2">
-        <v>116.1771810898332</v>
+        <v>748.903735016224</v>
       </c>
       <c r="S2">
-        <v>0.3675609942527751</v>
+        <v>0.356792298341251</v>
       </c>
       <c r="T2">
-        <v>0.3675609942527751</v>
+        <v>0.3080542848290077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H3">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I3">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J3">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.6720870787288488</v>
+        <v>0.7315781015946665</v>
       </c>
       <c r="R3">
-        <v>0.6720870787288488</v>
+        <v>4.389468609568</v>
       </c>
       <c r="S3">
-        <v>0.002126346951825267</v>
+        <v>0.002091228178573064</v>
       </c>
       <c r="T3">
-        <v>0.002126346951825267</v>
+        <v>0.001805565321784055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.3630471880002</v>
+        <v>40.497736</v>
       </c>
       <c r="H4">
-        <v>40.3630471880002</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I4">
-        <v>0.4396392843812731</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J4">
-        <v>0.4396392843812731</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N4">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O4">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P4">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q4">
-        <v>22.1101251141821</v>
+        <v>2.3154580558</v>
       </c>
       <c r="R4">
-        <v>22.1101251141821</v>
+        <v>13.8927483348</v>
       </c>
       <c r="S4">
-        <v>0.06995194317667272</v>
+        <v>0.006618775387123017</v>
       </c>
       <c r="T4">
-        <v>0.06995194317667272</v>
+        <v>0.005714647226981032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.99620921502984</v>
+        <v>40.497736</v>
       </c>
       <c r="H5">
-        <v>5.99620921502984</v>
+        <v>80.99547200000001</v>
       </c>
       <c r="I5">
-        <v>0.06531144975297699</v>
+        <v>0.4338277436889532</v>
       </c>
       <c r="J5">
-        <v>0.06531144975297699</v>
+        <v>0.3549025979779166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N5">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O5">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P5">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q5">
-        <v>17.25892201801235</v>
+        <v>23.902411750976</v>
       </c>
       <c r="R5">
-        <v>17.25892201801235</v>
+        <v>95.609647003904</v>
       </c>
       <c r="S5">
-        <v>0.05460372232449422</v>
+        <v>0.0683254417820061</v>
       </c>
       <c r="T5">
-        <v>0.05460372232449422</v>
+        <v>0.03932810060014384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H6">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I6">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J6">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N6">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O6">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P6">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q6">
-        <v>0.09984317378234284</v>
+        <v>19.92515324029222</v>
       </c>
       <c r="R6">
-        <v>0.09984317378234284</v>
+        <v>179.32637916263</v>
       </c>
       <c r="S6">
-        <v>0.0003158835141335864</v>
+        <v>0.05695638213836503</v>
       </c>
       <c r="T6">
-        <v>0.0003158835141335864</v>
+        <v>0.07376416607499318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.99620921502984</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H7">
-        <v>5.99620921502984</v>
+        <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06531144975297699</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J7">
-        <v>0.06531144975297699</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.547781365742757</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N7">
-        <v>0.547781365742757</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O7">
-        <v>0.1591121304710512</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P7">
-        <v>0.1591121304710512</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q7">
-        <v>3.284611673088351</v>
+        <v>0.1167851495455555</v>
       </c>
       <c r="R7">
-        <v>3.284611673088351</v>
+        <v>1.05106634591</v>
       </c>
       <c r="S7">
-        <v>0.01039184391434918</v>
+        <v>0.0003338322935530516</v>
       </c>
       <c r="T7">
-        <v>0.01039184391434918</v>
+        <v>0.0004323459429537082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H8">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J8">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.8783055092127</v>
+        <v>0.057175</v>
       </c>
       <c r="N8">
-        <v>2.8783055092127</v>
+        <v>0.171525</v>
       </c>
       <c r="O8">
-        <v>0.83605129775894</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P8">
-        <v>0.83605129775894</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q8">
-        <v>2.186675152275806</v>
+        <v>0.3696271317083333</v>
       </c>
       <c r="R8">
-        <v>2.186675152275806</v>
+        <v>3.326644185375</v>
       </c>
       <c r="S8">
-        <v>0.00691819585858991</v>
+        <v>0.001056585307445237</v>
       </c>
       <c r="T8">
-        <v>0.00691819585858991</v>
+        <v>0.001368382807416592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.759709191841114</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H9">
-        <v>0.759709191841114</v>
+        <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.00827484614536732</v>
+        <v>0.06925390168635236</v>
       </c>
       <c r="J9">
-        <v>0.00827484614536732</v>
+        <v>0.08498208097388052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0166510490548062</v>
+        <v>0.590216</v>
       </c>
       <c r="N9">
-        <v>0.0166510490548062</v>
+        <v>1.180432</v>
       </c>
       <c r="O9">
-        <v>0.004836571770008642</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P9">
-        <v>0.004836571770008642</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q9">
-        <v>0.01264995502073356</v>
+        <v>3.815651021746666</v>
       </c>
       <c r="R9">
-        <v>0.01264995502073356</v>
+        <v>22.89390613048</v>
       </c>
       <c r="S9">
-        <v>4.002188726784841E-05</v>
+        <v>0.01090710194698903</v>
       </c>
       <c r="T9">
-        <v>4.002188726784841E-05</v>
+        <v>0.009417186148517024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.759709191841114</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H10">
-        <v>0.759709191841114</v>
+        <v>2.292847</v>
       </c>
       <c r="I10">
-        <v>0.00827484614536732</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J10">
-        <v>0.00827484614536732</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.547781365742757</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N10">
-        <v>0.547781365742757</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O10">
-        <v>0.1591121304710512</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P10">
-        <v>0.1591121304710512</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q10">
-        <v>0.4161545386740516</v>
+        <v>2.355579803441556</v>
       </c>
       <c r="R10">
-        <v>0.4161545386740516</v>
+        <v>21.200218230974</v>
       </c>
       <c r="S10">
-        <v>0.00131662839950956</v>
+        <v>0.006733464070475795</v>
       </c>
       <c r="T10">
-        <v>0.00131662839950956</v>
+        <v>0.008720504064811618</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H11">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I11">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J11">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8783055092127</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N11">
-        <v>2.8783055092127</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O11">
-        <v>0.83605129775894</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P11">
-        <v>0.83605129775894</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q11">
-        <v>1.536178630930408</v>
+        <v>0.01380650559088889</v>
       </c>
       <c r="R11">
-        <v>1.536178630930408</v>
+        <v>0.124258550318</v>
       </c>
       <c r="S11">
-        <v>0.004860157043215263</v>
+        <v>3.946612600398792E-05</v>
       </c>
       <c r="T11">
-        <v>0.004860157043215263</v>
+        <v>5.111254899973425E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H12">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I12">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J12">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0166510490548062</v>
+        <v>0.057175</v>
       </c>
       <c r="N12">
-        <v>0.0166510490548062</v>
+        <v>0.171525</v>
       </c>
       <c r="O12">
-        <v>0.004836571770008642</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P12">
-        <v>0.004836571770008642</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q12">
-        <v>0.008886820964173413</v>
+        <v>0.04369784240833334</v>
       </c>
       <c r="R12">
-        <v>0.008886820964173413</v>
+        <v>0.393280581675</v>
       </c>
       <c r="S12">
-        <v>2.811609576593382E-05</v>
+        <v>0.0001249110097581656</v>
       </c>
       <c r="T12">
-        <v>2.811609576593382E-05</v>
+        <v>0.0001617721512931214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.533709373801184</v>
+        <v>0.7642823333333334</v>
       </c>
       <c r="H13">
-        <v>0.533709373801184</v>
+        <v>2.292847</v>
       </c>
       <c r="I13">
-        <v>0.005813228274680102</v>
+        <v>0.008187294228282994</v>
       </c>
       <c r="J13">
-        <v>0.005813228274680102</v>
+        <v>0.01004670183372562</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.547781365742757</v>
+        <v>0.590216</v>
       </c>
       <c r="N13">
-        <v>0.547781365742757</v>
+        <v>1.180432</v>
       </c>
       <c r="O13">
-        <v>0.1591121304710512</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P13">
-        <v>0.1591121304710512</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q13">
-        <v>0.2923560496905242</v>
+        <v>0.4510916616506667</v>
       </c>
       <c r="R13">
-        <v>0.2923560496905242</v>
+        <v>2.706549969904</v>
       </c>
       <c r="S13">
-        <v>0.0009249551356989044</v>
+        <v>0.001289453022045046</v>
       </c>
       <c r="T13">
-        <v>0.0009249551356989044</v>
+        <v>0.001113313068621144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H14">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I14">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J14">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N14">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O14">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P14">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q14">
-        <v>95.19982183353179</v>
+        <v>1.651329507909333</v>
       </c>
       <c r="R14">
-        <v>95.19982183353179</v>
+        <v>14.861965571184</v>
       </c>
       <c r="S14">
-        <v>0.3011928920771703</v>
+        <v>0.004720352880330615</v>
       </c>
       <c r="T14">
-        <v>0.3011928920771703</v>
+        <v>0.006113325332908427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H15">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I15">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J15">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N15">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O15">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P15">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q15">
-        <v>0.5507326787532502</v>
+        <v>0.009678759365333332</v>
       </c>
       <c r="R15">
-        <v>0.5507326787532502</v>
+        <v>0.08710883428799999</v>
       </c>
       <c r="S15">
-        <v>0.001742406289007072</v>
+        <v>2.766689472291958E-05</v>
       </c>
       <c r="T15">
-        <v>0.001742406289007072</v>
+        <v>3.583137377235413E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.0749538326707</v>
+        <v>0.535784</v>
       </c>
       <c r="H16">
-        <v>33.0749538326707</v>
+        <v>1.607352</v>
       </c>
       <c r="I16">
-        <v>0.3602564733581859</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J16">
-        <v>0.3602564733581859</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N16">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O16">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P16">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q16">
-        <v>18.11784338233899</v>
+        <v>0.03063345020000001</v>
       </c>
       <c r="R16">
-        <v>18.11784338233899</v>
+        <v>0.2757010518</v>
       </c>
       <c r="S16">
-        <v>0.05732117499200846</v>
+        <v>8.756622720870912E-05</v>
       </c>
       <c r="T16">
-        <v>0.05732117499200846</v>
+        <v>0.0001134069525464635</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0818355071188</v>
+        <v>0.535784</v>
       </c>
       <c r="H17">
-        <v>11.0818355071188</v>
+        <v>1.607352</v>
       </c>
       <c r="I17">
-        <v>0.1207047180875166</v>
+        <v>0.00573952983012784</v>
       </c>
       <c r="J17">
-        <v>0.1207047180875166</v>
+        <v>0.007043028290087626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N17">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O17">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P17">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q17">
-        <v>31.89690819232896</v>
+        <v>0.316228289344</v>
       </c>
       <c r="R17">
-        <v>31.89690819232896</v>
+        <v>1.897369736064</v>
       </c>
       <c r="S17">
-        <v>0.1009153362026952</v>
+        <v>0.0009039438278655961</v>
       </c>
       <c r="T17">
-        <v>0.1009153362026952</v>
+        <v>0.0007804646308603819</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.0818355071188</v>
+        <v>33.754358</v>
       </c>
       <c r="H18">
-        <v>11.0818355071188</v>
+        <v>101.263074</v>
       </c>
       <c r="I18">
-        <v>0.1207047180875166</v>
+        <v>0.3615900150766247</v>
       </c>
       <c r="J18">
-        <v>0.1207047180875166</v>
+        <v>0.4437103353361533</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N18">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P18">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q18">
-        <v>0.1845241866463283</v>
+        <v>104.0336542075453</v>
       </c>
       <c r="R18">
-        <v>0.1845241866463283</v>
+        <v>936.3028878679079</v>
       </c>
       <c r="S18">
-        <v>0.0005837970320089342</v>
+        <v>0.2973819319147469</v>
       </c>
       <c r="T18">
-        <v>0.0005837970320089342</v>
+        <v>0.3851391080313339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>33.754358</v>
+      </c>
+      <c r="H19">
+        <v>101.263074</v>
+      </c>
+      <c r="I19">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J19">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P19">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q19">
+        <v>0.6097612258173333</v>
+      </c>
+      <c r="R19">
+        <v>5.487851032356</v>
+      </c>
+      <c r="S19">
+        <v>0.001743012611846823</v>
+      </c>
+      <c r="T19">
+        <v>0.002257374273856352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>33.754358</v>
+      </c>
+      <c r="H20">
+        <v>101.263074</v>
+      </c>
+      <c r="I20">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J20">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.057175</v>
+      </c>
+      <c r="N20">
+        <v>0.171525</v>
+      </c>
+      <c r="O20">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P20">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q20">
+        <v>1.92990541865</v>
+      </c>
+      <c r="R20">
+        <v>17.36914876785</v>
+      </c>
+      <c r="S20">
+        <v>0.005516666757335247</v>
+      </c>
+      <c r="T20">
+        <v>0.007144630813802467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33.754358</v>
+      </c>
+      <c r="H21">
+        <v>101.263074</v>
+      </c>
+      <c r="I21">
+        <v>0.3615900150766247</v>
+      </c>
+      <c r="J21">
+        <v>0.4437103353361533</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.590216</v>
+      </c>
+      <c r="N21">
+        <v>1.180432</v>
+      </c>
+      <c r="O21">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P21">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q21">
+        <v>19.922362161328</v>
+      </c>
+      <c r="R21">
+        <v>119.534172967968</v>
+      </c>
+      <c r="S21">
+        <v>0.05694840379269576</v>
+      </c>
+      <c r="T21">
+        <v>0.0491692222171606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="H19">
-        <v>11.0818355071188</v>
-      </c>
-      <c r="I19">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="J19">
-        <v>0.1207047180875166</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="N19">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="O19">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="P19">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="Q19">
-        <v>6.070422989026115</v>
-      </c>
-      <c r="R19">
-        <v>6.070422989026115</v>
-      </c>
-      <c r="S19">
-        <v>0.01920558485281239</v>
-      </c>
-      <c r="T19">
-        <v>0.01920558485281239</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.332808</v>
+      </c>
+      <c r="H22">
+        <v>22.665616</v>
+      </c>
+      <c r="I22">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J22">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N22">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P22">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q22">
+        <v>34.92862843584533</v>
+      </c>
+      <c r="R22">
+        <v>209.571770615072</v>
+      </c>
+      <c r="S22">
+        <v>0.09984406567764965</v>
+      </c>
+      <c r="T22">
+        <v>0.08620531437965955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.332808</v>
+      </c>
+      <c r="H23">
+        <v>22.665616</v>
+      </c>
+      <c r="I23">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J23">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P23">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q23">
+        <v>0.2047233989173333</v>
+      </c>
+      <c r="R23">
+        <v>1.228340393504</v>
+      </c>
+      <c r="S23">
+        <v>0.0005852052428797067</v>
+      </c>
+      <c r="T23">
+        <v>0.0005052659023516007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.332808</v>
+      </c>
+      <c r="H24">
+        <v>22.665616</v>
+      </c>
+      <c r="I24">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J24">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.057175</v>
+      </c>
+      <c r="N24">
+        <v>0.171525</v>
+      </c>
+      <c r="O24">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P24">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q24">
+        <v>0.6479532974000001</v>
+      </c>
+      <c r="R24">
+        <v>3.8877197844</v>
+      </c>
+      <c r="S24">
+        <v>0.001852185284070962</v>
+      </c>
+      <c r="T24">
+        <v>0.001599175810991223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.332808</v>
+      </c>
+      <c r="H25">
+        <v>22.665616</v>
+      </c>
+      <c r="I25">
+        <v>0.1214015154896589</v>
+      </c>
+      <c r="J25">
+        <v>0.09931525558823626</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.590216</v>
+      </c>
+      <c r="N25">
+        <v>1.180432</v>
+      </c>
+      <c r="O25">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P25">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q25">
+        <v>6.688804606528</v>
+      </c>
+      <c r="R25">
+        <v>26.755218426112</v>
+      </c>
+      <c r="S25">
+        <v>0.01912005928505862</v>
+      </c>
+      <c r="T25">
+        <v>0.01100549949523388</v>
       </c>
     </row>
   </sheetData>
